--- a/15-FEB1019.xlsx
+++ b/15-FEB1019.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="90">
   <si>
     <t>Salary Structure</t>
   </si>
@@ -282,6 +282,9 @@
   </si>
   <si>
     <t>Amount</t>
+  </si>
+  <si>
+    <t>Varchar(30)</t>
   </si>
 </sst>
 </file>
@@ -392,7 +395,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -480,11 +483,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -509,6 +523,7 @@
     <xf numFmtId="0" fontId="3" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -810,8 +825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1049,6 +1064,14 @@
       </c>
       <c r="F14" s="17"/>
       <c r="G14" s="15"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="E15" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">

--- a/15-FEB1019.xlsx
+++ b/15-FEB1019.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="48" windowWidth="20112" windowHeight="9012"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="9015" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="104">
   <si>
     <t>Salary Structure</t>
   </si>
@@ -167,12 +168,54 @@
     <t>TABLE</t>
   </si>
   <si>
+    <t>PAYHEAD_MAP_ID</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
     <t>Salary_Str_Id</t>
   </si>
   <si>
+    <t>PayHead_Id</t>
+  </si>
+  <si>
+    <t>VARCHAR(5)</t>
+  </si>
+  <si>
     <t>Calculation Rate</t>
   </si>
   <si>
+    <t>DECIMAL(10,2)</t>
+  </si>
+  <si>
+    <t>CUTOFF_AMOUNT</t>
+  </si>
+  <si>
+    <t>DECIMAL(18,2)</t>
+  </si>
+  <si>
+    <t>ROUND_OFF</t>
+  </si>
+  <si>
+    <t>CREATED_BY</t>
+  </si>
+  <si>
+    <t>CREATED_ON</t>
+  </si>
+  <si>
+    <t>MODIFIED_BY</t>
+  </si>
+  <si>
+    <t>MODIFIED_ON</t>
+  </si>
+  <si>
+    <t>EFFECTIVE_FROM</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
     <t>PAGE</t>
   </si>
   <si>
@@ -212,86 +255,86 @@
     <t>PAGE-2-EMPLOYE SALARY STRUCTURE</t>
   </si>
   <si>
-    <t>FALSE,      button</t>
-  </si>
-  <si>
-    <t>Payhead_Map_Id</t>
-  </si>
-  <si>
-    <t>Int</t>
-  </si>
-  <si>
-    <t>Effective_From</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Payhead_Id</t>
-  </si>
-  <si>
-    <t>Pay_Calc_Basic</t>
-  </si>
-  <si>
-    <t>Varchar(5)</t>
-  </si>
-  <si>
-    <t>Pay_Calc_Type</t>
-  </si>
-  <si>
-    <t>Pay_Calc_Rate</t>
-  </si>
-  <si>
-    <t>Decimal(10,2)</t>
-  </si>
-  <si>
-    <t>Cutoff_Amount</t>
-  </si>
-  <si>
-    <t>Decimal(18,2)</t>
-  </si>
-  <si>
-    <t>Round_Off</t>
-  </si>
-  <si>
-    <t>Created_By</t>
-  </si>
-  <si>
-    <t>Created_On</t>
-  </si>
-  <si>
-    <t>Modified_By</t>
-  </si>
-  <si>
-    <t>Modified_On</t>
-  </si>
-  <si>
-    <t>Table</t>
-  </si>
-  <si>
-    <t>Emp_Sal_Str_Id</t>
-  </si>
-  <si>
-    <t>Varchar(20)</t>
-  </si>
-  <si>
-    <t>Employee_Id</t>
-  </si>
-  <si>
-    <t>Varchar(50)</t>
-  </si>
-  <si>
-    <t>Amount</t>
-  </si>
-  <si>
-    <t>Varchar(30)</t>
+    <t>EMP_SAL_STR_ID</t>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+  </si>
+  <si>
+    <t>EMPLOYEE_ID</t>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+  </si>
+  <si>
+    <t>AMOUNT</t>
+  </si>
+  <si>
+    <t>PayHead_Map_Slab</t>
+  </si>
+  <si>
+    <t>PAYHEAD_MAP_SLAB_ID</t>
+  </si>
+  <si>
+    <t>PAYMAP_MIN_AMOUNT</t>
+  </si>
+  <si>
+    <t>PAYMAP_MAX_AMOUNT</t>
+  </si>
+  <si>
+    <t>PAYMAP_TYPE</t>
+  </si>
+  <si>
+    <t>PAYMAP_AMOUNT</t>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+  </si>
+  <si>
+    <t>SALARY_STRU_ID</t>
+  </si>
+  <si>
+    <t>PAYHEAD_ID</t>
+  </si>
+  <si>
+    <t>PAYMAP_CALC_BASIC</t>
+  </si>
+  <si>
+    <t>PAYMAP_CALC_TYPE</t>
+  </si>
+  <si>
+    <t>PAYMAP_CALC_RATE</t>
+  </si>
+  <si>
+    <t>EMPLOYEE_SALARY_STRUCTURE</t>
+  </si>
+  <si>
+    <t>DEPARTMENT</t>
+  </si>
+  <si>
+    <t>COMBOBOX</t>
+  </si>
+  <si>
+    <t>EMPLOYEE</t>
+  </si>
+  <si>
+    <t>SEARCHABLE TEXTBOX</t>
+  </si>
+  <si>
+    <t>SHOW BUTTON</t>
+  </si>
+  <si>
+    <t>FORMULA_VALUE</t>
+  </si>
+  <si>
+    <t>FORMULA_NAME</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -302,20 +345,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color rgb="FF666666"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -349,6 +378,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,14 +423,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF538ED5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="8">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -431,74 +460,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -507,23 +473,15 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -613,6 +571,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -647,6 +606,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -822,452 +782,361 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.33203125" customWidth="1"/>
-    <col min="2" max="2" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="50" customWidth="1"/>
-    <col min="4" max="4" width="23.109375" style="13" customWidth="1"/>
-    <col min="5" max="5" width="42.88671875" customWidth="1"/>
-    <col min="6" max="6" width="32.5546875" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" style="14" customWidth="1"/>
+    <col min="5" max="5" width="42.85546875" customWidth="1"/>
+    <col min="6" max="6" width="32.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1" s="15"/>
-    </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1">
+        <v>67</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="G2" s="15"/>
-    </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1">
+      <c r="C2" s="11"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G3" s="15"/>
-    </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1">
+      <c r="C3" s="11"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="4"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="G4" s="15"/>
-    </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1">
+      <c r="C4" s="11"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="G5" s="15"/>
-    </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1">
+      <c r="D5" s="13"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="G6" s="15"/>
-    </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1">
+      <c r="D6" s="13"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="G7" s="15"/>
-    </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1">
+      <c r="D7" s="13"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="G8" s="15"/>
-    </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1">
+      <c r="D8" s="13"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="G9" s="15"/>
-    </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1">
+      <c r="D9" s="13"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="G10" s="15"/>
-    </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1">
+      <c r="C10" s="11"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="15"/>
-    </row>
-    <row r="12" spans="1:7" ht="15" thickBot="1">
+      <c r="C11" s="11"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="15"/>
-    </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1">
-      <c r="A13" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="15"/>
-    </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1">
-      <c r="E14" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="15"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="E15" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="D12" s="13"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15" thickBot="1"/>
-    <row r="18" spans="1:6" ht="15" thickBot="1">
-      <c r="A18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="F18" s="19"/>
-    </row>
-    <row r="19" spans="1:6" ht="15" thickBot="1">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="C19" s="1">
-        <v>50</v>
-      </c>
-      <c r="D19" s="14">
-        <v>66</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15" thickBot="1">
-      <c r="A20" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="E18" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
       <c r="B20" s="1">
         <v>100</v>
       </c>
       <c r="C20" s="1">
+        <v>50</v>
+      </c>
+      <c r="D20" s="15">
+        <v>66</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="1">
+        <v>100</v>
+      </c>
+      <c r="C21" s="1">
         <v>68</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D21" s="15">
         <v>54</v>
       </c>
-      <c r="E20" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15" thickBot="1">
-      <c r="A21" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B21" s="1">
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="1">
         <v>300</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C22" s="1">
         <v>55</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D22" s="15">
         <v>75</v>
       </c>
-      <c r="E21" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="F21" s="21" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15" thickBot="1">
-      <c r="A22" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B22" s="1">
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="1">
         <v>200</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C23" s="1">
         <v>77</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D23" s="15">
         <v>66</v>
       </c>
-      <c r="E22" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="F22" s="21" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15" thickBot="1">
-      <c r="A23" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B23" s="1">
-        <v>300</v>
-      </c>
-      <c r="C23" s="1">
-        <v>88</v>
-      </c>
-      <c r="D23" s="14">
-        <v>55</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="F23" s="21" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15" thickBot="1">
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="B24" s="1">
         <v>300</v>
       </c>
       <c r="C24" s="1">
+        <v>88</v>
+      </c>
+      <c r="D24" s="15">
+        <v>55</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="1">
+        <v>300</v>
+      </c>
+      <c r="C25" s="1">
         <v>9</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D25" s="15">
         <v>44</v>
       </c>
-      <c r="E24" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="F24" s="21"/>
-    </row>
-    <row r="25" spans="1:6" ht="15" thickBot="1">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="F25" s="21"/>
-    </row>
-    <row r="26" spans="1:6" ht="15" thickBot="1">
-      <c r="E26" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="F26" s="21"/>
-    </row>
-    <row r="27" spans="1:6" ht="15" thickBot="1">
-      <c r="E27" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="F27" s="21"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="22.5546875" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" customWidth="1"/>
-    <col min="6" max="6" width="34.44140625" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="34.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="D4" s="5" t="s">
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D4" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -1277,8 +1146,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="D5" s="5" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D5" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -1288,8 +1157,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="D6" s="5" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D6" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -1299,8 +1168,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="D7" s="5" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D7" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="2"/>
@@ -1308,21 +1177,21 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="D8" s="5"/>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D8" s="6"/>
       <c r="E8" s="2"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:8">
-      <c r="D9" s="5"/>
-      <c r="E9" s="7" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D9" s="6"/>
+      <c r="E9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -1333,24 +1202,24 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
-      <c r="D14" s="8" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D14" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D15" s="1" t="s">
         <v>36</v>
       </c>
@@ -1367,14 +1236,14 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D17" s="3" t="s">
         <v>37</v>
       </c>
@@ -1383,7 +1252,7 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D18" s="1" t="s">
         <v>38</v>
       </c>
@@ -1400,7 +1269,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D19" s="1">
         <v>0</v>
       </c>
@@ -1417,30 +1286,30 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
-      <c r="D24" s="9" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D24" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="10" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
-      <c r="D25" s="9" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D25" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="10" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1448,4 +1317,281 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21" customWidth="1"/>
+    <col min="8" max="8" width="36" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="G9" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="G10" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="12"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="12"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="12"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/15-FEB1019.xlsx
+++ b/15-FEB1019.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="9015" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="48" windowWidth="20112" windowHeight="9012" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="105">
   <si>
     <t>Salary Structure</t>
   </si>
@@ -328,13 +328,16 @@
   </si>
   <si>
     <t>FORMULA_NAME</t>
+  </si>
+  <si>
+    <t>info@intocasthitech.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -348,6 +351,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -461,10 +471,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -482,8 +496,10 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -571,7 +587,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -606,7 +621,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -782,24 +796,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.33203125" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="50" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" style="14" customWidth="1"/>
-    <col min="5" max="5" width="42.85546875" customWidth="1"/>
-    <col min="6" max="6" width="32.5703125" customWidth="1"/>
+    <col min="4" max="4" width="23.109375" style="14" customWidth="1"/>
+    <col min="5" max="5" width="42.88671875" customWidth="1"/>
+    <col min="6" max="6" width="32.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
         <v>66</v>
       </c>
@@ -811,7 +825,7 @@
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="11"/>
@@ -819,7 +833,7 @@
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="11"/>
@@ -827,7 +841,7 @@
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -837,7 +851,7 @@
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
@@ -851,7 +865,7 @@
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
@@ -865,7 +879,7 @@
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -879,7 +893,7 @@
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -893,7 +907,7 @@
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
@@ -907,7 +921,7 @@
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="4" t="s">
         <v>55</v>
       </c>
@@ -919,7 +933,7 @@
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
@@ -931,7 +945,7 @@
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
@@ -945,7 +959,7 @@
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="11"/>
@@ -953,16 +967,16 @@
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="16" t="s">
         <v>97</v>
       </c>
@@ -979,7 +993,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
         <v>69</v>
       </c>
@@ -995,7 +1009,7 @@
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="1"/>
       <c r="B20" s="1">
         <v>100</v>
@@ -1009,7 +1023,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
         <v>73</v>
       </c>
@@ -1025,7 +1039,7 @@
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
         <v>74</v>
       </c>
@@ -1041,7 +1055,7 @@
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
         <v>75</v>
       </c>
@@ -1057,7 +1071,7 @@
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
         <v>76</v>
       </c>
@@ -1073,7 +1087,7 @@
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
         <v>77</v>
       </c>
@@ -1089,7 +1103,7 @@
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1097,11 +1111,11 @@
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
     </row>
@@ -1111,21 +1125,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:H25"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="4" max="4" width="22.5703125" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1"/>
-    <col min="6" max="6" width="34.42578125" customWidth="1"/>
+    <col min="4" max="4" width="22.5546875" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" customWidth="1"/>
+    <col min="6" max="6" width="34.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -1135,7 +1149,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="D4" s="6" t="s">
         <v>16</v>
       </c>
@@ -1146,7 +1160,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="D5" s="6" t="s">
         <v>17</v>
       </c>
@@ -1157,7 +1171,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="D6" s="6" t="s">
         <v>18</v>
       </c>
@@ -1168,7 +1182,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="D7" s="6" t="s">
         <v>19</v>
       </c>
@@ -1177,12 +1191,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="D8" s="6"/>
       <c r="E8" s="2"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="D9" s="6"/>
       <c r="E9" s="8" t="s">
         <v>23</v>
@@ -1191,7 +1205,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -1202,7 +1216,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="D14" s="9" t="s">
         <v>33</v>
       </c>
@@ -1219,7 +1233,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="D15" s="1" t="s">
         <v>36</v>
       </c>
@@ -1236,14 +1250,14 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="D17" s="3" t="s">
         <v>37</v>
       </c>
@@ -1252,7 +1266,7 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="D18" s="1" t="s">
         <v>38</v>
       </c>
@@ -1269,7 +1283,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="D19" s="1">
         <v>0</v>
       </c>
@@ -1286,7 +1300,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -1297,7 +1311,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="D24" s="10" t="s">
         <v>45</v>
       </c>
@@ -1305,7 +1319,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="D25" s="10" t="s">
         <v>45</v>
       </c>
@@ -1320,22 +1334,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="40.28515625" customWidth="1"/>
+    <col min="1" max="1" width="40.33203125" customWidth="1"/>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
     <col min="8" max="8" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="12" t="s">
         <v>49</v>
       </c>
@@ -1349,7 +1363,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="12" t="s">
         <v>85</v>
       </c>
@@ -1363,7 +1377,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="12" t="s">
         <v>52</v>
       </c>
@@ -1377,7 +1391,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="12" t="s">
         <v>53</v>
       </c>
@@ -1391,7 +1405,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="12" t="s">
         <v>86</v>
       </c>
@@ -1405,7 +1419,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="12" t="s">
         <v>87</v>
       </c>
@@ -1419,7 +1433,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="12" t="s">
         <v>88</v>
       </c>
@@ -1431,7 +1445,7 @@
       </c>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="12" t="s">
         <v>89</v>
       </c>
@@ -1443,7 +1457,7 @@
       </c>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="G9" s="5" t="s">
@@ -1451,7 +1465,7 @@
       </c>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
       <c r="G10" s="5" t="s">
@@ -1459,19 +1473,19 @@
       </c>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" s="12" t="s">
         <v>49</v>
       </c>
@@ -1479,7 +1493,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" s="12" t="s">
         <v>50</v>
       </c>
@@ -1487,23 +1501,29 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" s="12" t="s">
         <v>64</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="H17" s="17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="12" t="s">
         <v>91</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="H18" s="17">
+        <v>919031002010</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="12" t="s">
         <v>92</v>
       </c>
@@ -1511,7 +1531,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" s="12" t="s">
         <v>93</v>
       </c>
@@ -1519,7 +1539,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" s="12" t="s">
         <v>94</v>
       </c>
@@ -1527,7 +1547,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" s="12" t="s">
         <v>95</v>
       </c>
@@ -1535,7 +1555,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" s="12" t="s">
         <v>103</v>
       </c>
@@ -1543,7 +1563,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" s="12" t="s">
         <v>102</v>
       </c>
@@ -1551,7 +1571,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" s="12" t="s">
         <v>57</v>
       </c>
@@ -1559,7 +1579,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" s="12" t="s">
         <v>59</v>
       </c>
@@ -1567,31 +1587,36 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" s="12" t="s">
         <v>60</v>
       </c>
       <c r="B27" s="12"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" s="12" t="s">
         <v>61</v>
       </c>
       <c r="B28" s="12"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" s="12" t="s">
         <v>62</v>
       </c>
       <c r="B29" s="12"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" s="12" t="s">
         <v>63</v>
       </c>
       <c r="B30" s="12"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H17" r:id="rId1" display="http://www.intocasthitech.com/iron-division.htm"/>
+    <hyperlink ref="H18" r:id="rId2" display="http://www.intocasthitech.com/index.htm"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
--- a/15-FEB1019.xlsx
+++ b/15-FEB1019.xlsx
@@ -1338,7 +1338,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1519,9 +1519,7 @@
       <c r="B18" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="H18" s="17">
-        <v>919031002010</v>
-      </c>
+      <c r="H18" s="17"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="12" t="s">
@@ -1614,9 +1612,8 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H17" r:id="rId1" display="http://www.intocasthitech.com/iron-division.htm"/>
-    <hyperlink ref="H18" r:id="rId2" display="http://www.intocasthitech.com/index.htm"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>